--- a/medicine/Enfance/Suzanne_Lebeau/Suzanne_Lebeau.xlsx
+++ b/medicine/Enfance/Suzanne_Lebeau/Suzanne_Lebeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzanne Lebeau, née le 28 avril 1948 à Montréal[1], est une dramaturge pour les enfants et actrice québécoise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzanne Lebeau, née le 28 avril 1948 à Montréal, est une dramaturge pour les enfants et actrice québécoise.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1948 au Québec, Suzanne Lebeau se destine d'abord à une carrière d'actrice. Mais après avoir fondé Le Carrousel du Gervais Gaudreault en 1975, elle délaisse peu à peu l'interprétation pour se consacrer exclusivement à l'écriture. Aujourd'hui, l'autrice a vingt-sept pièces originales, trois adaptations et plusieurs traductions à son actif et est reconnue internationalement comme l'un des chefs de file de la dramaturgie pour jeunes publics. Avec plus de cent trente productions répertoriées, elle compte parmi les auteurs québécois les plus joués sur tous les continents[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1948 au Québec, Suzanne Lebeau se destine d'abord à une carrière d'actrice. Mais après avoir fondé Le Carrousel du Gervais Gaudreault en 1975, elle délaisse peu à peu l'interprétation pour se consacrer exclusivement à l'écriture. Aujourd'hui, l'autrice a vingt-sept pièces originales, trois adaptations et plusieurs traductions à son actif et est reconnue internationalement comme l'un des chefs de file de la dramaturgie pour jeunes publics. Avec plus de cent trente productions répertoriées, elle compte parmi les auteurs québécois les plus joués sur tous les continents.
 Puisant son inspiration à de multiples sources (contes, mondes imaginaires, histoires vraies, actualité, voyages), elle aborde sans aucune auto-censure les sujets les plus variés (l'éducation, les enfants soldats, l'inceste, la pédagogie, le handicap, les rapports Nord-Sud…), cherchant, par une écriture du sensible et du vrai, à provoquer chez le spectateur une prise de conscience.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1974 : Ti-Jean voudrait se marier mais... - Éditions Leméac (Québec), 1985
 1975 : Le Jardin qui s'anime
@@ -552,7 +568,7 @@
 1978 : Petite ville deviendra grande
 1979 : Une lune entre deux maisons - Éditions Théâtrales, coll. Théâtrales jeunesse, 2006 et Éditions Leméac (Québec), 2012
 1980 : La couleur chante un pays, (collaboration Diane Bouchard, Raymond Plante et Michèle Poirier)
-1981 : Les Petits Pouvoirs - Éditions Leméac (Québec), 1983[3]
+1981 : Les Petits Pouvoirs - Éditions Leméac (Québec), 1983
 1983 : De l'autre côté de la toile
 1984 : La Marelle - Éditions Leméac (Québec), 1984
 1989 : Comment vivre avec les hommes quand on est un géant - Éditions Leméac (Québec), 1990
@@ -604,75 +620,422 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trois Petites Sœurs
-Gervais Gaudreault, Le Carrousel, 2016
-Chaîne de montage
-Gervais Gaudreault, Le Carrousel, 2014
-Elikia
-Marie Levasseur et Gaëlle Moquay, 2015
-Gretel et Hansel
-Gervais Gaudreault, Le Carrousel, 2013
+          <t>Trois Petites Sœurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chaîne de montage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Elikia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marie Levasseur et Gaëlle Moquay, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gretel et Hansel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2013
 Aude Ollier, Compagnie Looking for my left hand, 2017
-François Gérard, La Manivelle Théâtre, 2022
-Le Bruit des os qui craquent
-Gervais Gaudreault, Le Carrousel, 2009
+François Gérard, La Manivelle Théâtre, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le Bruit des os qui craquent</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2009
 Anne-Laure Liégeois, Comédie française, 2010
 Roland Mahauden, Groupe Taccems (Congo) / Théâtre de poche (Bruxelles), 2011
 Luc Cognet, compagnie Prométhée, 2013
 Marie Levasseur, compagnie Tourneboulé, 2014
 Jean-Marc Alloche, compagnie Ici Londres, 2015
 Louise Vignaud, La comédie de Valence, 2015
-Alberto Garcia Sanchez, compagnie La Cavalière bleue, 2016
-Souliers de sable
-Gervais Gaudreault, Le Carrousel, 2006
-François Gérard, La Manivelle Théâtre, 2017
-Petit Pierre
-Gervais Gaudreault, Le Carrousel, 2002
-Maud Hufnagel, Et compagnie, 2008
-L'Ogrelet
-Gervais Gaudreault, Le Carrousel, 1997
+Alberto Garcia Sanchez, compagnie La Cavalière bleue, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Souliers de sable</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2006
+François Gérard, La Manivelle Théâtre, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Petit Pierre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 2002
+Maud Hufnagel, Et compagnie, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L'Ogrelet</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 1997
 Christian Duchange, compagnie de L'Artifice, 2008
 François Gérard, La Manivelle Théâtre, 2009
 Marcelleo Chiarenza, Accademia Perduta/Romagna Teatri, 2011
-Gilles Droulez, compagnie Les Affamés, 2015
-Salvador. La montagne, l'enfant et la mangue
-Gervais Gaudreault, Le Carrousel, 1994
-Yves Chenevoy, compagnie Chenevoy, 2012
-Une lune entre deux maisons
-Gervais Gaudreault, Le Carrousel, 1981
+Gilles Droulez, compagnie Les Affamés, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Salvador. La montagne, l'enfant et la mangue</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 1994
+Yves Chenevoy, compagnie Chenevoy, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Une lune entre deux maisons</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Gervais Gaudreault, Le Carrousel, 1981
 François Gérard, La Manivelle Théâtre, 2008
 Marie-Eve Huot, Le Carrousel, 2012 et 2018
-Patrick Ellouz
-Antigone sous le soleil de midi
-Marie-Eve Huot, Le Carrousel, 2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Suzanne_Lebeau</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Patrick Ellouz</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Les mises en scène de ses pièces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Antigone sous le soleil de midi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Marie-Eve Huot, Le Carrousel, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suzanne_Lebeau</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>1985 : Chalmers Children's Play Award, Les Petits Pouvoirs
 1991 : Finaliste au prix du Gouverneur général, Conte du jour et de la nuit
@@ -692,8 +1055,8 @@
 2012 : prix Rideau Hommage (Québec) pour l'ensemble de sa carrière
 2013 : prix Gascon-Thomas (École nationale de théâtre du Canada) pour l'ensemble de sa carrière
 2016 : prix du Gouverneur général pour les arts du spectacle : Prix de la réalisation artistique – catégorie Théâtre
-2018 : prix Louise-LaHaye du Centre des auteurs dramatiques pour son texte Trois petites sœurs[4]
-2019 : compagne de l'ordre des arts et des lettres du Québec[5]</t>
+2018 : prix Louise-LaHaye du Centre des auteurs dramatiques pour son texte Trois petites sœurs
+2019 : compagne de l'ordre des arts et des lettres du Québec</t>
         </is>
       </c>
     </row>
